--- a/database/industries/zeraat/zegoldasht/income/quarterly/rial.xlsx
+++ b/database/industries/zeraat/zegoldasht/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\zegoldasht\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209B842-0F1D-4AEC-BFE3-52474D43CF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C41653-ADFD-4F38-8392-D0F7A6056BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -55,6 +70,21 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1400-09-07 (5)</t>
+  </si>
+  <si>
+    <t>1400-10-30 (5)</t>
+  </si>
+  <si>
+    <t>1401-02-26 (9)</t>
+  </si>
+  <si>
+    <t>1401-06-03 (3)</t>
+  </si>
+  <si>
+    <t>1401-08-30 (4)</t>
+  </si>
+  <si>
     <t>1401-10-29 (2)</t>
   </si>
   <si>
@@ -73,6 +103,9 @@
     <t>ارزش منصفانه تولیدات کشاورزی</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>خالص افزایش (کاهش) ارزش منصفانه دارایی های زیستی غیر مولد</t>
   </si>
   <si>
@@ -107,9 +140,6 @@
   </si>
   <si>
     <t>سایر درآمدها و هزینه‌های غیرعملیاتی - اقلام متفرقه</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>هزینه های مالی</t>
@@ -618,20 +648,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H38"/>
+  <dimension ref="B1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -639,8 +671,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -650,8 +687,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -661,8 +703,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -670,8 +717,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -681,8 +733,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -692,8 +749,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -701,8 +763,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -722,29 +789,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -752,325 +849,555 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="13">
+      <c r="D11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1794029</v>
+      </c>
+      <c r="G11" s="13">
+        <v>644211</v>
+      </c>
+      <c r="H11" s="13">
+        <v>747691</v>
+      </c>
+      <c r="I11" s="13">
         <v>845492</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>3123661</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>1221120</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>1583132</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>1823493</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11">
+      <c r="D12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="11">
+        <v>92184</v>
+      </c>
+      <c r="G12" s="11">
+        <v>24567</v>
+      </c>
+      <c r="H12" s="11">
+        <v>22924</v>
+      </c>
+      <c r="I12" s="11">
         <v>50407</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>107297</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-3056</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>89157</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>64510</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="13">
+      <c r="D13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1894273</v>
+      </c>
+      <c r="G13" s="13">
+        <v>683741</v>
+      </c>
+      <c r="H13" s="13">
+        <v>770186</v>
+      </c>
+      <c r="I13" s="13">
         <v>867410</v>
       </c>
-      <c r="E13" s="13">
+      <c r="J13" s="13">
         <v>3240025</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>1204691</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1615524</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1842239</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11">
+      <c r="D14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-1871825</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-682615</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-752462</v>
+      </c>
+      <c r="I14" s="11">
         <v>-867774</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-3198990</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-1181657</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-1601362</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-1851515</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15">
+        <v>426351</v>
+      </c>
+      <c r="E15" s="15">
+        <v>521023</v>
+      </c>
+      <c r="F15" s="15">
+        <v>639290</v>
+      </c>
+      <c r="G15" s="15">
+        <v>669904</v>
+      </c>
+      <c r="H15" s="15">
+        <v>788339</v>
+      </c>
+      <c r="I15" s="15">
         <v>895535</v>
       </c>
-      <c r="E15" s="15">
+      <c r="J15" s="15">
         <v>918215</v>
       </c>
-      <c r="F15" s="15">
+      <c r="K15" s="15">
         <v>1241098</v>
       </c>
-      <c r="G15" s="15">
+      <c r="L15" s="15">
         <v>1686451</v>
       </c>
-      <c r="H15" s="15">
+      <c r="M15" s="15">
         <v>1878727</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11">
+      <c r="D16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-1446944</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-596024</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-618464</v>
+      </c>
+      <c r="I16" s="11">
         <v>-694388</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-2625935</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>-1082798</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>-1384488</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>-1570660</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13">
+        <v>-17298</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-25721</v>
+      </c>
+      <c r="F17" s="13">
+        <v>-34352</v>
+      </c>
+      <c r="G17" s="13">
+        <v>-34500</v>
+      </c>
+      <c r="H17" s="13">
+        <v>-28004</v>
+      </c>
+      <c r="I17" s="13">
         <v>-56429</v>
       </c>
-      <c r="E17" s="13">
+      <c r="J17" s="13">
         <v>-65524</v>
       </c>
-      <c r="F17" s="13">
+      <c r="K17" s="13">
         <v>-78223</v>
       </c>
-      <c r="G17" s="13">
+      <c r="L17" s="13">
         <v>-89231</v>
       </c>
-      <c r="H17" s="13">
+      <c r="M17" s="13">
         <v>-112357</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>3594</v>
+      </c>
+      <c r="E18" s="11">
+        <v>89</v>
+      </c>
+      <c r="F18" s="11">
+        <v>14338</v>
+      </c>
+      <c r="G18" s="11">
+        <v>3702</v>
+      </c>
+      <c r="H18" s="11">
+        <v>10177</v>
+      </c>
+      <c r="I18" s="11">
         <v>6699</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>4904</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>1257</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>10427</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>2527</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>-8556</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-4506</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-12070</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-9403</v>
+      </c>
+      <c r="H19" s="13">
+        <v>-9147</v>
+      </c>
+      <c r="I19" s="13">
         <v>-9275</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>-9480</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>-9789</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>-14756</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>-17181</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>122230</v>
+      </c>
+      <c r="E20" s="17">
+        <v>94286</v>
+      </c>
+      <c r="F20" s="17">
+        <v>77911</v>
+      </c>
+      <c r="G20" s="17">
+        <v>33679</v>
+      </c>
+      <c r="H20" s="17">
+        <v>142901</v>
+      </c>
+      <c r="I20" s="17">
         <v>142142</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>131056</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>71545</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>208403</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>181056</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="13">
+      <c r="D21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="13">
+        <v>55182</v>
+      </c>
+      <c r="G21" s="13">
+        <v>33179</v>
+      </c>
+      <c r="H21" s="13">
+        <v>17216</v>
+      </c>
+      <c r="I21" s="13">
         <v>28495</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>108091</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>32210</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>41546</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>32298</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11">
+        <v>982</v>
+      </c>
+      <c r="E22" s="11">
+        <v>265</v>
+      </c>
+      <c r="F22" s="11">
+        <v>96</v>
+      </c>
+      <c r="G22" s="11">
+        <v>4617</v>
+      </c>
+      <c r="H22" s="11">
+        <v>-3750</v>
+      </c>
+      <c r="I22" s="11">
         <v>5099</v>
       </c>
-      <c r="E22" s="11">
+      <c r="J22" s="11">
         <v>-4069</v>
       </c>
-      <c r="F22" s="11">
+      <c r="K22" s="11">
         <v>157</v>
       </c>
-      <c r="G22" s="11">
+      <c r="L22" s="11">
         <v>205</v>
       </c>
-      <c r="H22" s="11">
+      <c r="M22" s="11">
         <v>3105</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
         <v>-5565</v>
       </c>
-      <c r="E24" s="11">
+      <c r="J24" s="11">
         <v>-6806</v>
       </c>
-      <c r="F24" s="11">
+      <c r="K24" s="11">
         <v>-10061</v>
       </c>
-      <c r="G24" s="11">
+      <c r="L24" s="11">
         <v>-28987</v>
       </c>
-      <c r="H24" s="11">
+      <c r="M24" s="11">
         <v>-19810</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15">
+        <v>134582</v>
+      </c>
+      <c r="E25" s="15">
+        <v>103685</v>
+      </c>
+      <c r="F25" s="15">
+        <v>102119</v>
+      </c>
+      <c r="G25" s="15">
+        <v>72127</v>
+      </c>
+      <c r="H25" s="15">
+        <v>161364</v>
+      </c>
+      <c r="I25" s="15">
         <v>165214</v>
       </c>
-      <c r="E25" s="15">
+      <c r="J25" s="15">
         <v>153654</v>
       </c>
-      <c r="F25" s="15">
+      <c r="K25" s="15">
         <v>93851</v>
       </c>
-      <c r="G25" s="15">
+      <c r="L25" s="15">
         <v>221189</v>
       </c>
-      <c r="H25" s="15">
+      <c r="M25" s="15">
         <v>197995</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1080,60 +1407,105 @@
         <v>0</v>
       </c>
       <c r="F26" s="11">
-        <v>0</v>
+        <v>-317</v>
       </c>
       <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
         <v>-1789</v>
       </c>
-      <c r="H26" s="11">
+      <c r="M26" s="11">
         <v>-466</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
         <v>0</v>
       </c>
       <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
         <v>-740</v>
       </c>
-      <c r="F27" s="13">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17">
+        <v>134582</v>
+      </c>
+      <c r="E28" s="17">
+        <v>103685</v>
+      </c>
+      <c r="F28" s="17">
+        <v>101802</v>
+      </c>
+      <c r="G28" s="17">
+        <v>72127</v>
+      </c>
+      <c r="H28" s="17">
+        <v>161364</v>
+      </c>
+      <c r="I28" s="17">
         <v>165214</v>
       </c>
-      <c r="E28" s="17">
+      <c r="J28" s="17">
         <v>152914</v>
       </c>
-      <c r="F28" s="17">
+      <c r="K28" s="17">
         <v>93851</v>
       </c>
-      <c r="G28" s="17">
+      <c r="L28" s="17">
         <v>219400</v>
       </c>
-      <c r="H28" s="17">
+      <c r="M28" s="17">
         <v>197529</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13">
@@ -1151,31 +1523,61 @@
       <c r="H29" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17">
+        <v>134582</v>
+      </c>
+      <c r="E30" s="17">
+        <v>103685</v>
+      </c>
+      <c r="F30" s="17">
+        <v>101802</v>
+      </c>
+      <c r="G30" s="17">
+        <v>72127</v>
+      </c>
+      <c r="H30" s="17">
+        <v>161364</v>
+      </c>
+      <c r="I30" s="17">
         <v>165214</v>
       </c>
-      <c r="E30" s="17">
+      <c r="J30" s="17">
         <v>152914</v>
       </c>
-      <c r="F30" s="17">
+      <c r="K30" s="17">
         <v>93851</v>
       </c>
-      <c r="G30" s="17">
+      <c r="L30" s="17">
         <v>219400</v>
       </c>
-      <c r="H30" s="17">
+      <c r="M30" s="17">
         <v>197529</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13">
@@ -1193,10 +1595,25 @@
       <c r="H31" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
@@ -1214,10 +1631,25 @@
       <c r="H32" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
@@ -1235,10 +1667,25 @@
       <c r="H33" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
@@ -1256,71 +1703,131 @@
       <c r="H34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>673</v>
+      </c>
+      <c r="E35" s="15">
+        <v>518</v>
+      </c>
+      <c r="F35" s="15">
+        <v>509</v>
+      </c>
+      <c r="G35" s="15">
+        <v>361</v>
+      </c>
+      <c r="H35" s="15">
+        <v>807</v>
+      </c>
+      <c r="I35" s="15">
         <v>826</v>
       </c>
-      <c r="E35" s="15">
+      <c r="J35" s="15">
         <v>218</v>
       </c>
-      <c r="F35" s="15">
+      <c r="K35" s="15">
         <v>134</v>
       </c>
-      <c r="G35" s="15">
+      <c r="L35" s="15">
         <v>313</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
         <v>200000</v>
       </c>
       <c r="E36" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F36" s="11">
+        <v>200000</v>
+      </c>
+      <c r="G36" s="11">
+        <v>200000</v>
+      </c>
+      <c r="H36" s="11">
+        <v>200000</v>
+      </c>
+      <c r="I36" s="11">
+        <v>200000</v>
+      </c>
+      <c r="J36" s="11">
         <v>700000</v>
       </c>
-      <c r="F36" s="11">
+      <c r="K36" s="11">
         <v>700000</v>
       </c>
-      <c r="G36" s="11">
+      <c r="L36" s="11">
         <v>700000</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>700000</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
+        <v>192</v>
+      </c>
+      <c r="E37" s="15">
+        <v>148</v>
+      </c>
+      <c r="F37" s="15">
+        <v>145</v>
+      </c>
+      <c r="G37" s="15">
+        <v>103</v>
+      </c>
+      <c r="H37" s="15">
+        <v>231</v>
+      </c>
+      <c r="I37" s="15">
         <v>236</v>
       </c>
-      <c r="E37" s="15">
+      <c r="J37" s="15">
         <v>218</v>
       </c>
-      <c r="F37" s="15">
+      <c r="K37" s="15">
         <v>134</v>
       </c>
-      <c r="G37" s="15">
+      <c r="L37" s="15">
         <v>313</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1328,6 +1835,11 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/zeraat/zegoldasht/income/quarterly/rial.xlsx
+++ b/database/industries/zeraat/zegoldasht/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C41653-ADFD-4F38-8392-D0F7A6056BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC25062-E399-4A29-BB30-1AEF5AB4382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-07 (5)</t>
-  </si>
-  <si>
     <t>1400-10-30 (5)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-02-29 (8)</t>
   </si>
   <si>
     <t>1401-06-03 (2)</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-29</t>
   </si>
   <si>
     <t>ارزش منصفانه تولیدات کشاورزی</t>
@@ -652,18 +652,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -677,7 +678,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,7 +694,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -709,7 +710,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -723,7 +724,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -739,7 +740,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -755,7 +756,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -769,7 +770,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -805,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -841,7 +842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -855,7 +856,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -863,35 +864,35 @@
       <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>27</v>
+      <c r="E11" s="13">
+        <v>1794029</v>
       </c>
       <c r="F11" s="13">
-        <v>1794029</v>
+        <v>644211</v>
       </c>
       <c r="G11" s="13">
-        <v>644211</v>
+        <v>747691</v>
       </c>
       <c r="H11" s="13">
-        <v>747691</v>
+        <v>845492</v>
       </c>
       <c r="I11" s="13">
-        <v>845492</v>
+        <v>886267</v>
       </c>
       <c r="J11" s="13">
-        <v>3123661</v>
+        <v>1221120</v>
       </c>
       <c r="K11" s="13">
-        <v>1221120</v>
+        <v>1583132</v>
       </c>
       <c r="L11" s="13">
-        <v>1583132</v>
+        <v>1823493</v>
       </c>
       <c r="M11" s="13">
-        <v>1823493</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2035081</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
@@ -899,35 +900,35 @@
       <c r="D12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>27</v>
+      <c r="E12" s="11">
+        <v>92184</v>
       </c>
       <c r="F12" s="11">
-        <v>92184</v>
+        <v>24567</v>
       </c>
       <c r="G12" s="11">
-        <v>24567</v>
+        <v>22924</v>
       </c>
       <c r="H12" s="11">
-        <v>22924</v>
+        <v>50407</v>
       </c>
       <c r="I12" s="11">
-        <v>50407</v>
+        <v>9399</v>
       </c>
       <c r="J12" s="11">
-        <v>107297</v>
+        <v>-3056</v>
       </c>
       <c r="K12" s="11">
-        <v>-3056</v>
+        <v>89157</v>
       </c>
       <c r="L12" s="11">
-        <v>89157</v>
+        <v>64510</v>
       </c>
       <c r="M12" s="11">
-        <v>64510</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>35636</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>29</v>
       </c>
@@ -935,35 +936,35 @@
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>27</v>
+      <c r="E13" s="13">
+        <v>1894273</v>
       </c>
       <c r="F13" s="13">
-        <v>1894273</v>
+        <v>683741</v>
       </c>
       <c r="G13" s="13">
-        <v>683741</v>
+        <v>770186</v>
       </c>
       <c r="H13" s="13">
-        <v>770186</v>
+        <v>867410</v>
       </c>
       <c r="I13" s="13">
-        <v>867410</v>
+        <v>918688</v>
       </c>
       <c r="J13" s="13">
-        <v>3240025</v>
+        <v>1204691</v>
       </c>
       <c r="K13" s="13">
-        <v>1204691</v>
+        <v>1615524</v>
       </c>
       <c r="L13" s="13">
-        <v>1615524</v>
+        <v>1842239</v>
       </c>
       <c r="M13" s="13">
-        <v>1842239</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1961914</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
@@ -971,71 +972,71 @@
       <c r="D14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>27</v>
+      <c r="E14" s="11">
+        <v>-1871825</v>
       </c>
       <c r="F14" s="11">
-        <v>-1871825</v>
+        <v>-682615</v>
       </c>
       <c r="G14" s="11">
-        <v>-682615</v>
+        <v>-752462</v>
       </c>
       <c r="H14" s="11">
-        <v>-752462</v>
+        <v>-867774</v>
       </c>
       <c r="I14" s="11">
-        <v>-867774</v>
+        <v>-896139</v>
       </c>
       <c r="J14" s="11">
-        <v>-3198990</v>
+        <v>-1181657</v>
       </c>
       <c r="K14" s="11">
-        <v>-1181657</v>
+        <v>-1601362</v>
       </c>
       <c r="L14" s="11">
-        <v>-1601362</v>
+        <v>-1851515</v>
       </c>
       <c r="M14" s="11">
-        <v>-1851515</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1963154</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15">
-        <v>426351</v>
+        <v>521023</v>
       </c>
       <c r="E15" s="15">
-        <v>521023</v>
+        <v>639290</v>
       </c>
       <c r="F15" s="15">
-        <v>639290</v>
+        <v>669904</v>
       </c>
       <c r="G15" s="15">
-        <v>669904</v>
+        <v>788339</v>
       </c>
       <c r="H15" s="15">
-        <v>788339</v>
+        <v>895535</v>
       </c>
       <c r="I15" s="15">
-        <v>895535</v>
+        <v>918215</v>
       </c>
       <c r="J15" s="15">
-        <v>918215</v>
+        <v>1241098</v>
       </c>
       <c r="K15" s="15">
-        <v>1241098</v>
+        <v>1686451</v>
       </c>
       <c r="L15" s="15">
-        <v>1686451</v>
+        <v>1878727</v>
       </c>
       <c r="M15" s="15">
-        <v>1878727</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2069477</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
@@ -1043,179 +1044,179 @@
       <c r="D16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>27</v>
+      <c r="E16" s="11">
+        <v>-1446944</v>
       </c>
       <c r="F16" s="11">
-        <v>-1446944</v>
+        <v>-596024</v>
       </c>
       <c r="G16" s="11">
-        <v>-596024</v>
+        <v>-618464</v>
       </c>
       <c r="H16" s="11">
-        <v>-618464</v>
+        <v>-694388</v>
       </c>
       <c r="I16" s="11">
-        <v>-694388</v>
+        <v>-717059</v>
       </c>
       <c r="J16" s="11">
-        <v>-2625935</v>
+        <v>-1082798</v>
       </c>
       <c r="K16" s="11">
-        <v>-1082798</v>
+        <v>-1384488</v>
       </c>
       <c r="L16" s="11">
-        <v>-1384488</v>
+        <v>-1570660</v>
       </c>
       <c r="M16" s="11">
-        <v>-1570660</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1871269</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13">
-        <v>-17298</v>
+        <v>-25721</v>
       </c>
       <c r="E17" s="13">
-        <v>-25721</v>
+        <v>-34352</v>
       </c>
       <c r="F17" s="13">
-        <v>-34352</v>
+        <v>-34500</v>
       </c>
       <c r="G17" s="13">
-        <v>-34500</v>
+        <v>-28004</v>
       </c>
       <c r="H17" s="13">
-        <v>-28004</v>
+        <v>-56429</v>
       </c>
       <c r="I17" s="13">
-        <v>-56429</v>
+        <v>-65524</v>
       </c>
       <c r="J17" s="13">
-        <v>-65524</v>
+        <v>-78223</v>
       </c>
       <c r="K17" s="13">
-        <v>-78223</v>
+        <v>-89231</v>
       </c>
       <c r="L17" s="13">
-        <v>-89231</v>
+        <v>-112357</v>
       </c>
       <c r="M17" s="13">
-        <v>-112357</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-61895</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>3594</v>
+        <v>89</v>
       </c>
       <c r="E18" s="11">
-        <v>89</v>
+        <v>14338</v>
       </c>
       <c r="F18" s="11">
-        <v>14338</v>
+        <v>3702</v>
       </c>
       <c r="G18" s="11">
-        <v>3702</v>
+        <v>10177</v>
       </c>
       <c r="H18" s="11">
-        <v>10177</v>
+        <v>6699</v>
       </c>
       <c r="I18" s="11">
-        <v>6699</v>
+        <v>4904</v>
       </c>
       <c r="J18" s="11">
-        <v>4904</v>
+        <v>1257</v>
       </c>
       <c r="K18" s="11">
-        <v>1257</v>
+        <v>10427</v>
       </c>
       <c r="L18" s="11">
-        <v>10427</v>
+        <v>2527</v>
       </c>
       <c r="M18" s="11">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7249</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>-8556</v>
+        <v>-4506</v>
       </c>
       <c r="E19" s="13">
-        <v>-4506</v>
+        <v>-12070</v>
       </c>
       <c r="F19" s="13">
-        <v>-12070</v>
+        <v>-9403</v>
       </c>
       <c r="G19" s="13">
-        <v>-9403</v>
+        <v>-9147</v>
       </c>
       <c r="H19" s="13">
-        <v>-9147</v>
+        <v>-9275</v>
       </c>
       <c r="I19" s="13">
-        <v>-9275</v>
+        <v>-9480</v>
       </c>
       <c r="J19" s="13">
-        <v>-9480</v>
+        <v>-9789</v>
       </c>
       <c r="K19" s="13">
-        <v>-9789</v>
+        <v>-14756</v>
       </c>
       <c r="L19" s="13">
-        <v>-14756</v>
+        <v>-17181</v>
       </c>
       <c r="M19" s="13">
-        <v>-17181</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-14040</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>122230</v>
+        <v>94286</v>
       </c>
       <c r="E20" s="17">
-        <v>94286</v>
+        <v>77911</v>
       </c>
       <c r="F20" s="17">
-        <v>77911</v>
+        <v>33679</v>
       </c>
       <c r="G20" s="17">
-        <v>33679</v>
+        <v>142901</v>
       </c>
       <c r="H20" s="17">
-        <v>142901</v>
+        <v>142142</v>
       </c>
       <c r="I20" s="17">
-        <v>142142</v>
+        <v>131056</v>
       </c>
       <c r="J20" s="17">
-        <v>131056</v>
+        <v>71545</v>
       </c>
       <c r="K20" s="17">
-        <v>71545</v>
+        <v>208403</v>
       </c>
       <c r="L20" s="17">
-        <v>208403</v>
+        <v>181056</v>
       </c>
       <c r="M20" s="17">
-        <v>181056</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>129522</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
@@ -1223,71 +1224,71 @@
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>27</v>
+      <c r="E21" s="13">
+        <v>55182</v>
       </c>
       <c r="F21" s="13">
-        <v>55182</v>
+        <v>33179</v>
       </c>
       <c r="G21" s="13">
-        <v>33179</v>
+        <v>17216</v>
       </c>
       <c r="H21" s="13">
-        <v>17216</v>
+        <v>28495</v>
       </c>
       <c r="I21" s="13">
-        <v>28495</v>
+        <v>29201</v>
       </c>
       <c r="J21" s="13">
-        <v>108091</v>
+        <v>32210</v>
       </c>
       <c r="K21" s="13">
-        <v>32210</v>
+        <v>41546</v>
       </c>
       <c r="L21" s="13">
-        <v>41546</v>
+        <v>32298</v>
       </c>
       <c r="M21" s="13">
-        <v>32298</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>71701</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11">
-        <v>982</v>
+        <v>265</v>
       </c>
       <c r="E22" s="11">
-        <v>265</v>
+        <v>96</v>
       </c>
       <c r="F22" s="11">
-        <v>96</v>
+        <v>4617</v>
       </c>
       <c r="G22" s="11">
-        <v>4617</v>
+        <v>-3750</v>
       </c>
       <c r="H22" s="11">
-        <v>-3750</v>
+        <v>5099</v>
       </c>
       <c r="I22" s="11">
-        <v>5099</v>
+        <v>-4069</v>
       </c>
       <c r="J22" s="11">
-        <v>-4069</v>
+        <v>157</v>
       </c>
       <c r="K22" s="11">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="L22" s="11">
-        <v>205</v>
+        <v>3105</v>
       </c>
       <c r="M22" s="11">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1307,8 +1308,8 @@
       <c r="H23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>27</v>
+      <c r="I23" s="13">
+        <v>4964</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>27</v>
@@ -1319,11 +1320,11 @@
       <c r="L23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="13">
+        <v>-6140</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>40</v>
       </c>
@@ -1341,61 +1342,61 @@
         <v>0</v>
       </c>
       <c r="H24" s="11">
-        <v>0</v>
+        <v>-5565</v>
       </c>
       <c r="I24" s="11">
-        <v>-5565</v>
+        <v>-6806</v>
       </c>
       <c r="J24" s="11">
-        <v>-6806</v>
+        <v>-10061</v>
       </c>
       <c r="K24" s="11">
-        <v>-10061</v>
+        <v>-28987</v>
       </c>
       <c r="L24" s="11">
-        <v>-28987</v>
+        <v>-19810</v>
       </c>
       <c r="M24" s="11">
-        <v>-19810</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-33977</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15">
-        <v>134582</v>
+        <v>103685</v>
       </c>
       <c r="E25" s="15">
-        <v>103685</v>
+        <v>102119</v>
       </c>
       <c r="F25" s="15">
-        <v>102119</v>
+        <v>72127</v>
       </c>
       <c r="G25" s="15">
-        <v>72127</v>
+        <v>161364</v>
       </c>
       <c r="H25" s="15">
-        <v>161364</v>
+        <v>165214</v>
       </c>
       <c r="I25" s="15">
-        <v>165214</v>
+        <v>153654</v>
       </c>
       <c r="J25" s="15">
-        <v>153654</v>
+        <v>93851</v>
       </c>
       <c r="K25" s="15">
-        <v>93851</v>
+        <v>221189</v>
       </c>
       <c r="L25" s="15">
-        <v>221189</v>
+        <v>197995</v>
       </c>
       <c r="M25" s="15">
-        <v>197995</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>160095</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
@@ -1404,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="11">
-        <v>0</v>
+        <v>-317</v>
       </c>
       <c r="F26" s="11">
-        <v>-317</v>
+        <v>0</v>
       </c>
       <c r="G26" s="11">
         <v>0</v>
@@ -1422,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="K26" s="11">
-        <v>0</v>
+        <v>-1789</v>
       </c>
       <c r="L26" s="11">
-        <v>-1789</v>
+        <v>-466</v>
       </c>
       <c r="M26" s="11">
-        <v>-466</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1452,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="13">
-        <v>0</v>
+        <v>-740</v>
       </c>
       <c r="J27" s="13">
-        <v>-740</v>
+        <v>0</v>
       </c>
       <c r="K27" s="13">
         <v>0</v>
@@ -1464,46 +1465,46 @@
         <v>0</v>
       </c>
       <c r="M27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1698</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17">
-        <v>134582</v>
+        <v>103685</v>
       </c>
       <c r="E28" s="17">
-        <v>103685</v>
+        <v>101802</v>
       </c>
       <c r="F28" s="17">
-        <v>101802</v>
+        <v>72127</v>
       </c>
       <c r="G28" s="17">
-        <v>72127</v>
+        <v>161364</v>
       </c>
       <c r="H28" s="17">
-        <v>161364</v>
+        <v>165214</v>
       </c>
       <c r="I28" s="17">
-        <v>165214</v>
+        <v>152914</v>
       </c>
       <c r="J28" s="17">
-        <v>152914</v>
+        <v>93851</v>
       </c>
       <c r="K28" s="17">
-        <v>93851</v>
+        <v>219400</v>
       </c>
       <c r="L28" s="17">
-        <v>219400</v>
+        <v>197529</v>
       </c>
       <c r="M28" s="17">
-        <v>197529</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+        <v>160006</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>45</v>
       </c>
@@ -1539,43 +1540,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17">
-        <v>134582</v>
+        <v>103685</v>
       </c>
       <c r="E30" s="17">
-        <v>103685</v>
+        <v>101802</v>
       </c>
       <c r="F30" s="17">
-        <v>101802</v>
+        <v>72127</v>
       </c>
       <c r="G30" s="17">
-        <v>72127</v>
+        <v>161364</v>
       </c>
       <c r="H30" s="17">
-        <v>161364</v>
+        <v>165214</v>
       </c>
       <c r="I30" s="17">
-        <v>165214</v>
+        <v>152914</v>
       </c>
       <c r="J30" s="17">
-        <v>152914</v>
+        <v>93851</v>
       </c>
       <c r="K30" s="17">
-        <v>93851</v>
+        <v>219400</v>
       </c>
       <c r="L30" s="17">
-        <v>219400</v>
+        <v>197529</v>
       </c>
       <c r="M30" s="17">
-        <v>197529</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>160006</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>47</v>
       </c>
@@ -1611,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
@@ -1719,43 +1720,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>673</v>
+        <v>518</v>
       </c>
       <c r="E35" s="15">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="F35" s="15">
-        <v>509</v>
+        <v>361</v>
       </c>
       <c r="G35" s="15">
-        <v>361</v>
+        <v>807</v>
       </c>
       <c r="H35" s="15">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="I35" s="15">
-        <v>826</v>
+        <v>218</v>
       </c>
       <c r="J35" s="15">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="K35" s="15">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c r="L35" s="15">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="M35" s="15">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>200000</v>
       </c>
       <c r="I36" s="11">
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="J36" s="11">
         <v>700000</v>
@@ -1791,43 +1792,43 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="E37" s="15">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F37" s="15">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="G37" s="15">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="H37" s="15">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I37" s="15">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="J37" s="15">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="K37" s="15">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c r="L37" s="15">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="M37" s="15">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
